--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010676</t>
-  </si>
-  <si>
-    <t>007903</t>
-  </si>
-  <si>
-    <t>003670</t>
-  </si>
-  <si>
-    <t>光大保德信新机遇混合</t>
-  </si>
-  <si>
-    <t>长城量化小盘股票</t>
-  </si>
-  <si>
-    <t>中融物联网主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>4.51</t>
-  </si>
-  <si>
-    <t>1.97</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>66.02</t>
-  </si>
-  <si>
-    <t>83.06</t>
-  </si>
-  <si>
-    <t>94.10</t>
-  </si>
-  <si>
-    <t>3.59</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>0.1619</t>
-  </si>
-  <si>
-    <t>0.0329</t>
-  </si>
-  <si>
-    <t>0.0125</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,857 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.36</v>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688233-神工股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.36</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>004332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>恒生前海沪港深新兴产业精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>75.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013757</t>
+          <t>003456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合A</t>
+          <t>信澳新目标灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>51.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>013383</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>恒生前海高端制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>84.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013758</t>
+          <t>013384</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合C</t>
+          <t>恒生前海高端制造混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>84.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -774,6 +791,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1665,7 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2233,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
